--- a/data/TYA.xlsx
+++ b/data/TYA.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TYA</t>
@@ -23047,7 +23047,7 @@
         <v>-1.3582560383E10</v>
       </c>
       <c r="I18" s="21" t="n">
-        <v>0.0</v>
+        <v>-1.9672072284E10</v>
       </c>
       <c r="K18" s="21" t="n">
         <v>1.922578695E9</v>
@@ -23449,7 +23449,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="21" t="n">
-        <v>-1.9672072284E10</v>
+        <v>0.0</v>
       </c>
       <c r="K21" s="21" t="n">
         <v>-2.0E7</v>

--- a/data/TYA.xlsx
+++ b/data/TYA.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TYA</t>

--- a/data/TYA.xlsx
+++ b/data/TYA.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TYA</t>

--- a/data/TYA.xlsx
+++ b/data/TYA.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TYA</t>
